--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -25,16 +25,28 @@
     <t>expectedtitle</t>
   </si>
   <si>
-    <t>Jerrard P</t>
-  </si>
-  <si>
-    <t>jerry@google.com</t>
-  </si>
-  <si>
-    <t>jerry@123456</t>
+    <t>Mark Ellis</t>
+  </si>
+  <si>
+    <t>mark.ellis@google.com</t>
+  </si>
+  <si>
+    <t>mark@123456</t>
   </si>
   <si>
     <t>Sign up | Miro | Online Whiteboard for Visual Collaboration</t>
+  </si>
+  <si>
+    <t>Stephan J</t>
+  </si>
+  <si>
+    <t>stephan@msw.com</t>
+  </si>
+  <si>
+    <t>stephan@123456</t>
+  </si>
+  <si>
+    <t>Miro</t>
   </si>
 </sst>
 </file>
@@ -291,9 +303,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="8.38"/>
-    <col customWidth="1" min="2" max="2" width="14.5"/>
-    <col customWidth="1" min="3" max="3" width="11.5"/>
+    <col customWidth="1" min="1" max="1" width="8.5"/>
+    <col customWidth="1" min="2" max="2" width="18.38"/>
+    <col customWidth="1" min="3" max="3" width="14.13"/>
     <col customWidth="1" min="4" max="4" width="44.13"/>
   </cols>
   <sheetData>
@@ -325,6 +337,20 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
